--- a/output/table3/Table3_Post-ZLB_daily_volume.xlsx
+++ b/output/table3/Table3_Post-ZLB_daily_volume.xlsx
@@ -1337,7 +1337,7 @@
         <v>60611.5576923077</v>
       </c>
       <c r="W11" t="n">
-        <v>38282.0340201784</v>
+        <v>38282.03402017841</v>
       </c>
       <c r="X11" t="n">
         <v>35037</v>
@@ -2385,49 +2385,49 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1378092.835820896</v>
+        <v>1372178.222222222</v>
       </c>
       <c r="E26" t="n">
-        <v>542943.8592905821</v>
+        <v>530511.9816199905</v>
       </c>
       <c r="F26" t="n">
         <v>1034859</v>
       </c>
       <c r="G26" t="n">
-        <v>1247856</v>
+        <v>1233998</v>
       </c>
       <c r="H26" t="n">
-        <v>1694605</v>
+        <v>1647226.5</v>
       </c>
       <c r="I26" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J26" t="n">
-        <v>1484491.863636364</v>
+        <v>1438162.873015873</v>
       </c>
       <c r="K26" t="n">
-        <v>458666.6399718909</v>
+        <v>386608.0948163136</v>
       </c>
       <c r="L26" t="n">
-        <v>1163061.5</v>
+        <v>1156363</v>
       </c>
       <c r="M26" t="n">
-        <v>1406802.5</v>
+        <v>1385127</v>
       </c>
       <c r="N26" t="n">
-        <v>1707149.75</v>
+        <v>1650527</v>
       </c>
       <c r="O26" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P26" t="n">
-        <v>1594528.014925373</v>
+        <v>1591098.857142857</v>
       </c>
       <c r="Q26" t="n">
-        <v>486661.3313300993</v>
+        <v>384932.1306574436</v>
       </c>
       <c r="R26" t="n">
-        <v>1289698</v>
+        <v>1295451.5</v>
       </c>
       <c r="S26" t="n">
         <v>1602385</v>
@@ -2436,13 +2436,13 @@
         <v>1774810.5</v>
       </c>
       <c r="U26" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="V26" t="n">
-        <v>1814363.626865672</v>
+        <v>1807131.333333333</v>
       </c>
       <c r="W26" t="n">
-        <v>480288.8277604531</v>
+        <v>483832.4142378493</v>
       </c>
       <c r="X26" t="n">
         <v>1534617</v>
@@ -2451,28 +2451,28 @@
         <v>1799661</v>
       </c>
       <c r="Z26" t="n">
-        <v>2060162.5</v>
+        <v>2037612</v>
       </c>
       <c r="AA26" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AB26" t="n">
-        <v>1755833.446153846</v>
+        <v>1722071.365079365</v>
       </c>
       <c r="AC26" t="n">
-        <v>523282.5523834504</v>
+        <v>494428.412564784</v>
       </c>
       <c r="AD26" t="n">
-        <v>1351213</v>
+        <v>1345607</v>
       </c>
       <c r="AE26" t="n">
-        <v>1679247</v>
+        <v>1656560</v>
       </c>
       <c r="AF26" t="n">
-        <v>2138630</v>
+        <v>2106191</v>
       </c>
       <c r="AG26" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>216435.1791044776</v>
+        <v>218920.6349206349</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>133314.5909090909</v>
+        <v>152935.9841269841</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>-219835.6119402985</v>
+        <v>-216032.4761904762</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>-157539.4461538462</v>
+        <v>-130972.5079365079</v>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -2565,7 +2565,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>

--- a/output/table3/Table3_Post-ZLB_daily_volume.xlsx
+++ b/output/table3/Table3_Post-ZLB_daily_volume.xlsx
@@ -2385,94 +2385,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1372178.222222222</v>
+        <v>1156019.258064516</v>
       </c>
       <c r="E26" t="n">
-        <v>530511.9816199905</v>
+        <v>470721.7044122966</v>
       </c>
       <c r="F26" t="n">
-        <v>1034859</v>
+        <v>943247.5</v>
       </c>
       <c r="G26" t="n">
-        <v>1233998</v>
+        <v>1214222.5</v>
       </c>
       <c r="H26" t="n">
-        <v>1647226.5</v>
+        <v>1408225</v>
       </c>
       <c r="I26" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J26" t="n">
-        <v>1438162.873015873</v>
+        <v>1395887.725806452</v>
       </c>
       <c r="K26" t="n">
-        <v>386608.0948163136</v>
+        <v>421848.9578408938</v>
       </c>
       <c r="L26" t="n">
-        <v>1156363</v>
+        <v>1143188.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1385127</v>
+        <v>1395650</v>
       </c>
       <c r="N26" t="n">
-        <v>1650527</v>
+        <v>1659552.5</v>
       </c>
       <c r="O26" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P26" t="n">
-        <v>1591098.857142857</v>
+        <v>1457891.338709677</v>
       </c>
       <c r="Q26" t="n">
-        <v>384932.1306574436</v>
+        <v>371585.8271050477</v>
       </c>
       <c r="R26" t="n">
-        <v>1295451.5</v>
+        <v>1216031.25</v>
       </c>
       <c r="S26" t="n">
-        <v>1602385</v>
+        <v>1410431</v>
       </c>
       <c r="T26" t="n">
-        <v>1774810.5</v>
+        <v>1771407</v>
       </c>
       <c r="U26" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V26" t="n">
-        <v>1807131.333333333</v>
+        <v>1470363.774193548</v>
       </c>
       <c r="W26" t="n">
-        <v>483832.4142378493</v>
+        <v>661735.5641658152</v>
       </c>
       <c r="X26" t="n">
-        <v>1534617</v>
+        <v>1229644.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1799661</v>
+        <v>1442094.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>2037612</v>
+        <v>1752537.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB26" t="n">
-        <v>1722071.365079365</v>
+        <v>1404754.370967742</v>
       </c>
       <c r="AC26" t="n">
-        <v>494428.412564784</v>
+        <v>526276.9506933801</v>
       </c>
       <c r="AD26" t="n">
-        <v>1345607</v>
+        <v>1101111.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>1656560</v>
+        <v>1377275</v>
       </c>
       <c r="AF26" t="n">
-        <v>2106191</v>
+        <v>1757069.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>218920.6349206349</v>
+        <v>301872.0806451613</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>152935.9841269841</v>
+        <v>62003.6129032258</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>-216032.4761904762</v>
+        <v>-12472.43548387097</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>-130972.5079365079</v>
+        <v>53136.96774193548</v>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -2565,7 +2565,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
